--- a/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
+++ b/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7:51:26</t>
+          <t>8:19:06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14 days 5:40:41</t>
+          <t>16 days 2:25:52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>99 km/h</t>
+          <t>98 km/h</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:06:46</t>
+          <t>1:08:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7 days 13:44:07</t>
+          <t>15 days 23:57:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>105 km/h</t>
+          <t>104 km/h</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4 days 0:29:05</t>
+          <t>5 days 23:22:38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>73 km/h</t>
+          <t>71 km/h</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6:20:33</t>
+          <t>7:15:59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27 days 8:40:35</t>
+          <t>29 days 1:34:17</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>112 km/h</t>
+          <t>109 km/h</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17:03:55</t>
+          <t>17:30:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24 days 11:34:36</t>
+          <t>26 days 11:24:20</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -997,28 +997,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21.07.2025 14:54:23</t>
+          <t>22.07.2025 11:05:52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rua Mun. City Ribeirão, Ribeirão Preto, SP 14000-000, Brazil</t>
+          <t>55B, Subsetor Leste-6, Ribeirão Preto, SP, Brazil</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-21.2254366</v>
+        <v>-21.2048116</v>
       </c>
       <c r="F10" t="n">
-        <v>-47.75549</v>
+        <v>-47.757315</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:58:19</t>
+          <t>3:50:01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23 days 0:40:25</t>
+          <t>22 days 4:28:56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>63 km/h</t>
+          <t>75 km/h</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>50 km/h</t>
+          <t>40 km/h</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5:46:32</t>
+          <t>5:57:58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26 days 21:51:58</t>
+          <t>29 days 5:49:33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>116 km/h</t>
+          <t>115 km/h</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1186,28 +1186,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21.07.2025 14:25:13</t>
+          <t>22.07.2025 08:51:55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mg-427, Conceição Das Alagoas, MG 38120-000, Brazil</t>
+          <t>Sp-328, Ribeirão Preto, SP, Brazil</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-19.972705</v>
+        <v>-21.0958533</v>
       </c>
       <c r="F13" t="n">
-        <v>-48.3080583</v>
+        <v>-47.7963533</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:20:55</t>
+          <t>14:06:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25 days 3:13:40</t>
+          <t>27 days 12:17:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>123 km/h</t>
+          <t>102 km/h</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4:45:42</t>
+          <t>4:46:32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8 days 21:38:15</t>
+          <t>9 days 23:44:22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6:52:51</t>
+          <t>8:09:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12 days 5:38:35</t>
+          <t>13 days 7:06:23</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:47:47</t>
+          <t>13:11:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20 days 1:13:01</t>
+          <t>22 days 2:32:33</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1489,43 +1489,43 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21.07.2025 15:59:00</t>
+          <t>22.07.2025 10:06:50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rodovia Attílio Balbo, Sertãozinho, SP 14173-000, Brazil</t>
+          <t>Avenida Gen. Euclydes De Figueiredo, Subsetor Norte-10, Ribeirão Preto, SP 14070-270, Brazil</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-21.167295</v>
+        <v>-21.1112716</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.9179833</v>
+        <v>-47.790145</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:23:50</t>
+          <t>14:36:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25 days 3:09:47</t>
+          <t>29 days 6:21:20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'t': '139 km/h', 'y': -21.6998983, 'x': -48.0234933, 'u': 401879415}</t>
+          <t>{'t': '140 km/h', 'y': -20.4904, 'x': -42.1855633, 'u': 401879415}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>74 km/h</t>
+          <t>54 km/h</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>94 km/h</t>
+          <t>93 km/h</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:31:08</t>
+          <t>14:49:57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12 days 7:51:15</t>
+          <t>14 days 8:57:10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>107 km/h</t>
+          <t>106 km/h</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6:41:19</t>
+          <t>7:03:02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20 days 19:32:14</t>
+          <t>26 days 5:35:52</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>106 km/h</t>
+          <t>105 km/h</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7:22:55</t>
+          <t>8:27:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12 days 9:04:55</t>
+          <t>14 days 6:37:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:28:13</t>
+          <t>8:15:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23 days 5:59:13</t>
+          <t>27 days 5:50:48</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>110 km/h</t>
+          <t>108 km/h</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:26:07</t>
+          <t>9:00:27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25 days 0:40:32</t>
+          <t>27 days 2:16:17</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>107 km/h</t>
+          <t>106 km/h</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1:21:56</t>
+          <t>3:43:47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12 days 5:27:03</t>
+          <t>14 days 0:23:52</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'t': '146 km/h', 'y': -22.4994016, 'x': -49.2723066, 'u': 401929767}</t>
+          <t>{'t': '151 km/h', 'y': -22.6260566, 'x': -50.5993383, 'u': 401929767}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>106 km/h</t>
+          <t>120 km/h</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:17:33</t>
+          <t>11:11:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>24 days 7:01:18</t>
+          <t>28 days 1:39:56</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>102 km/h</t>
+          <t>101 km/h</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1:35:22</t>
+          <t>1:55:20</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14 days 8:28:27</t>
+          <t>15 days 7:40:16</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4:28:55</t>
+          <t>5:43:01</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>25 days 0:16:14</t>
+          <t>26 days 22:59:33</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>8:26:37</t>
+          <t>12:54:19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18 days 10:05:29</t>
+          <t>26 days 2:25:13</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'t': '184 km/h', 'y': -21.758285, 'x': -48.07348, 'u': 401897329}</t>
+          <t>{'t': '189 km/h', 'y': -21.7579216, 'x': -48.0730216, 'u': 401897329}</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>119 km/h</t>
+          <t>123 km/h</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5:55:12</t>
+          <t>6:47:54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23 days 19:27:51</t>
+          <t>28 days 2:13:18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>114 km/h</t>
+          <t>112 km/h</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11:22:57</t>
+          <t>14:47:22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14 days 15:08:45</t>
+          <t>20 days 19:51:41</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90 km/h</t>
+          <t>93 km/h</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0:17:43</t>
+          <t>0:28:18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4 days 4:48:01</t>
+          <t>5 days 5:02:23</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>87 km/h</t>
+          <t>88 km/h</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5:17:25</t>
+          <t>5:22:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25 days 0:59:02</t>
+          <t>27 days 0:57:28</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>114 km/h</t>
+          <t>113 km/h</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10:48:38</t>
+          <t>16:29:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>24 days 13:33:10</t>
+          <t>27 days 2:37:47</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>106 km/h</t>
+          <t>105 km/h</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11:08:10</t>
+          <t>15:11:47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11 days 5:24:20</t>
+          <t>15 days 13:48:18</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>103 km/h</t>
+          <t>104 km/h</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">

--- a/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
+++ b/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8:19:06</t>
+          <t>8:30:55</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16 days 2:25:52</t>
+          <t>17 days 6:25:44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>98 km/h</t>
+          <t>97 km/h</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:08:38</t>
+          <t>1:08:55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15 days 23:57:35</t>
+          <t>16 days 13:29:22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5 days 23:22:38</t>
+          <t>7 days 3:03:01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>71 km/h</t>
+          <t>70 km/h</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -812,28 +812,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22.07.2025 18:19:47</t>
+          <t>23.07.2025 11:00:35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rodovia João Mellão, Avaré, SP 18706-680, Brazil</t>
+          <t>Rodovia Otavio Pacheco De Almeida Prado, Jaú, SP 17213-810, Brazil</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-23.0902866</v>
+        <v>-22.31824</v>
       </c>
       <c r="F7" t="n">
-        <v>-48.937215</v>
+        <v>-48.5734766</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4:41:18</t>
+          <t>4:31:27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24 days 2:48:28</t>
+          <t>23 days 10:07:40</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>87 km/h</t>
+          <t>81 km/h</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -868,31 +868,35 @@
           <t>SFRESGATE_SJI6G54</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RODRIGO PRADO PELICANO</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22.07.2025 14:53:59</t>
+          <t>23.07.2025 21:07:09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sp-333, Subsetor Oeste-1, Ribeirão Preto, SP 14050-290, Brazil</t>
+          <t>Rodovia Alexandre Balbo, Subsetor Oeste-12, Ribeirão Preto, SP 14057-800, Brazil</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-21.17757</v>
+        <v>-21.1376633</v>
       </c>
       <c r="F8" t="n">
-        <v>-47.8225533</v>
+        <v>-47.8629366</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:15:59</t>
+          <t>7:11:56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29 days 1:34:17</t>
+          <t>27 days 19:21:07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -902,7 +906,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>91 km/h</t>
+          <t>107 km/h</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -912,7 +916,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>40 km/h</t>
+          <t>60 km/h</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -997,28 +1001,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22.07.2025 11:05:52</t>
+          <t>23.07.2025 11:53:19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55B, Subsetor Leste-6, Ribeirão Preto, SP, Brazil</t>
+          <t>Rua Mun. City Ribeirão, Ribeirão Preto, SP 14000-000, Brazil</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-21.2048116</v>
+        <v>-21.2254483</v>
       </c>
       <c r="F10" t="n">
-        <v>-47.757315</v>
+        <v>-47.7554083</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:50:01</t>
+          <t>3:48:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22 days 4:28:56</t>
+          <t>21 days 3:41:29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1028,7 +1032,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>75 km/h</t>
+          <t>62 km/h</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1038,7 +1042,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>40 km/h</t>
+          <t>50 km/h</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1055,33 +1059,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HIGOR OLIVEIRA FERREIRA</t>
+          <t>JURANDIR DOS SANTOS SOARES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22.07.2025 18:10:22</t>
+          <t>23.07.2025 11:28:56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sp-322, Subsetor Sul-5, Ribeirão Preto, SP 14026-800, Brazil</t>
+          <t>321, Subsetor Norte-10, Ribeirão Preto, SP, Brazil</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-21.2223633</v>
+        <v>-21.0916866</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.8190116</v>
+        <v>-47.7938916</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5:57:58</t>
+          <t>6:18:58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29 days 5:49:33</t>
+          <t>29 days 11:42:27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1091,7 +1095,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>109 km/h</t>
+          <t>52 km/h</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1101,7 +1105,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>90 km/h</t>
+          <t>40 km/h</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1118,38 +1122,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TESTEBANCADA</t>
+          <t>HENRIQUE MARQUES DA SILVA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22.07.2025 15:40:10</t>
+          <t>25.07.2025 21:38:58</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Avenida Gen. Euclydes De Figueiredo, Subsetor Norte-10, Ribeirão Preto, SP 14070-260, Brazil</t>
+          <t>Avenida Antônio E Helena Zerrenner 1125, Subsetor Oeste-2, Ribeirão Preto, SP 14050-010, Brazil</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-21.1127633</v>
+        <v>-21.1654116</v>
       </c>
       <c r="F12" t="n">
-        <v>-47.790415</v>
+        <v>-47.824835</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20 days 6:41:11</t>
+          <t>17 days 0:42:23</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'t': '103 km/h', 'y': -20.37496, 'x': -47.8142866, 'u': 401880902}</t>
+          <t>{'t': '84 km/h', 'y': -21.2063016, 'x': -47.7526733, 'u': 401880902}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1159,7 +1163,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>66 km/h</t>
+          <t>60 km/h</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1186,28 +1190,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22.07.2025 08:51:55</t>
+          <t>23.07.2025 00:00:02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sp-328, Ribeirão Preto, SP, Brazil</t>
+          <t>Br-040 615, Congonhas, MG 36415-000, Brazil</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-21.0958533</v>
+        <v>-20.5097216</v>
       </c>
       <c r="F13" t="n">
-        <v>-47.7963533</v>
+        <v>-43.83995</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14:06:15</t>
+          <t>10:14:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>27 days 12:17:06</t>
+          <t>29 days 20:39:23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1217,7 +1221,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>102 km/h</t>
+          <t>86 km/h</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1227,7 +1231,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>80 km/h</t>
+          <t>60 km/h</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1320,12 +1324,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:09:02</t>
+          <t>8:46:48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13 days 7:06:23</t>
+          <t>15 days 6:49:53</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1383,12 +1387,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:11:34</t>
+          <t>13:37:47</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22 days 2:32:33</t>
+          <t>23 days 0:42:37</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1403,7 +1407,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>105 km/h</t>
+          <t>104 km/h</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1489,28 +1493,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22.07.2025 10:06:50</t>
+          <t>23.07.2025 12:13:55</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Avenida Gen. Euclydes De Figueiredo, Subsetor Norte-10, Ribeirão Preto, SP 14070-270, Brazil</t>
+          <t>Viaduto Profissionais Da Saúde, Subsetor Leste-1, Ribeirão Preto, SP 14020-161, Brazil</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-21.1112716</v>
+        <v>-21.192515</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.790145</v>
+        <v>-47.7984266</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:36:40</t>
+          <t>14:35:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29 days 6:21:20</t>
+          <t>29 days 3:24:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1520,7 +1524,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>54 km/h</t>
+          <t>69 km/h</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1564,12 +1568,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:49:57</t>
+          <t>15:05:08</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14 days 8:57:10</t>
+          <t>15 days 7:19:33</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1627,12 +1631,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7:03:02</t>
+          <t>7:06:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>26 days 5:35:52</t>
+          <t>27 days 6:32:27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1647,7 +1651,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>105 km/h</t>
+          <t>104 km/h</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1686,12 +1690,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:27:11</t>
+          <t>8:58:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14 days 6:37:00</t>
+          <t>15 days 9:27:39</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1749,12 +1753,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:15:24</t>
+          <t>8:33:01</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>27 days 5:50:48</t>
+          <t>28 days 5:06:56</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1769,7 +1773,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>108 km/h</t>
+          <t>107 km/h</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1812,12 +1816,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9:00:27</t>
+          <t>9:51:48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>27 days 2:16:17</t>
+          <t>28 days 2:52:55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1832,7 +1836,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>106 km/h</t>
+          <t>108 km/h</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1871,12 +1875,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:43:47</t>
+          <t>3:52:47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>14 days 0:23:52</t>
+          <t>15 days 1:40:59</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1930,12 +1934,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:11:10</t>
+          <t>11:12:20</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>28 days 1:39:56</t>
+          <t>29 days 1:07:25</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2056,12 +2060,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5:43:01</t>
+          <t>6:08:44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26 days 22:59:33</t>
+          <t>27 days 20:29:29</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2076,7 +2080,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>117 km/h</t>
+          <t>118 km/h</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2115,12 +2119,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:54:19</t>
+          <t>14:23:21</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>26 days 2:25:13</t>
+          <t>27 days 1:32:15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2135,7 +2139,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>123 km/h</t>
+          <t>124 km/h</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2174,12 +2178,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6:47:54</t>
+          <t>6:57:49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28 days 2:13:18</t>
+          <t>29 days 2:36:30</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2237,12 +2241,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14:47:22</t>
+          <t>16:40:53</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>20 days 19:51:41</t>
+          <t>22 days 1:01:25</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2257,7 +2261,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>93 km/h</t>
+          <t>94 km/h</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2359,12 +2363,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5:58:27</t>
+          <t>6:38:06</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22 days 8:01:34</t>
+          <t>29 days 4:55:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2379,7 +2383,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>111 km/h</t>
+          <t>110 km/h</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2544,12 +2548,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16:29:00</t>
+          <t>16:51:35</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>27 days 2:37:47</t>
+          <t>28 days 1:15:02</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2607,12 +2611,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:11:47</t>
+          <t>15:12:21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15 days 13:48:18</t>
+          <t>16 days 14:05:07</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">

--- a/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
+++ b/umbrella360/deposito/relatorio_[UMBR]INFRA.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8:30:55</t>
+          <t>8:19:06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17 days 6:25:44</t>
+          <t>16 days 2:25:52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>97 km/h</t>
+          <t>98 km/h</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:08:55</t>
+          <t>1:08:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16 days 13:29:22</t>
+          <t>15 days 23:57:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7 days 3:03:01</t>
+          <t>5 days 23:22:38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>70 km/h</t>
+          <t>71 km/h</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -812,28 +812,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23.07.2025 11:00:35</t>
+          <t>22.07.2025 18:19:47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rodovia Otavio Pacheco De Almeida Prado, Jaú, SP 17213-810, Brazil</t>
+          <t>Rodovia João Mellão, Avaré, SP 18706-680, Brazil</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-22.31824</v>
+        <v>-23.0902866</v>
       </c>
       <c r="F7" t="n">
-        <v>-48.5734766</v>
+        <v>-48.937215</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4:31:27</t>
+          <t>4:41:18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23 days 10:07:40</t>
+          <t>24 days 2:48:28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>81 km/h</t>
+          <t>87 km/h</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -868,35 +868,31 @@
           <t>SFRESGATE_SJI6G54</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RODRIGO PRADO PELICANO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23.07.2025 21:07:09</t>
+          <t>22.07.2025 14:53:59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rodovia Alexandre Balbo, Subsetor Oeste-12, Ribeirão Preto, SP 14057-800, Brazil</t>
+          <t>Sp-333, Subsetor Oeste-1, Ribeirão Preto, SP 14050-290, Brazil</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-21.1376633</v>
+        <v>-21.17757</v>
       </c>
       <c r="F8" t="n">
-        <v>-47.8629366</v>
+        <v>-47.8225533</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:11:56</t>
+          <t>7:15:59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27 days 19:21:07</t>
+          <t>29 days 1:34:17</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -906,7 +902,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>107 km/h</t>
+          <t>91 km/h</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -916,7 +912,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>60 km/h</t>
+          <t>40 km/h</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1001,28 +997,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23.07.2025 11:53:19</t>
+          <t>22.07.2025 11:05:52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rua Mun. City Ribeirão, Ribeirão Preto, SP 14000-000, Brazil</t>
+          <t>55B, Subsetor Leste-6, Ribeirão Preto, SP, Brazil</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-21.2254483</v>
+        <v>-21.2048116</v>
       </c>
       <c r="F10" t="n">
-        <v>-47.7554083</v>
+        <v>-47.757315</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:48:00</t>
+          <t>3:50:01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21 days 3:41:29</t>
+          <t>22 days 4:28:56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1032,7 +1028,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>62 km/h</t>
+          <t>75 km/h</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1042,7 +1038,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>50 km/h</t>
+          <t>40 km/h</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1059,33 +1055,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JURANDIR DOS SANTOS SOARES</t>
+          <t>HIGOR OLIVEIRA FERREIRA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23.07.2025 11:28:56</t>
+          <t>22.07.2025 18:10:22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>321, Subsetor Norte-10, Ribeirão Preto, SP, Brazil</t>
+          <t>Sp-322, Subsetor Sul-5, Ribeirão Preto, SP 14026-800, Brazil</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-21.0916866</v>
+        <v>-21.2223633</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.7938916</v>
+        <v>-47.8190116</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:18:58</t>
+          <t>5:57:58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29 days 11:42:27</t>
+          <t>29 days 5:49:33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1095,7 +1091,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>52 km/h</t>
+          <t>109 km/h</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>40 km/h</t>
+          <t>90 km/h</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1122,38 +1118,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HENRIQUE MARQUES DA SILVA</t>
+          <t>TESTEBANCADA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25.07.2025 21:38:58</t>
+          <t>22.07.2025 15:40:10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Avenida Antônio E Helena Zerrenner 1125, Subsetor Oeste-2, Ribeirão Preto, SP 14050-010, Brazil</t>
+          <t>Avenida Gen. Euclydes De Figueiredo, Subsetor Norte-10, Ribeirão Preto, SP 14070-260, Brazil</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-21.1654116</v>
+        <v>-21.1127633</v>
       </c>
       <c r="F12" t="n">
-        <v>-47.824835</v>
+        <v>-47.790415</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17 days 0:42:23</t>
+          <t>20 days 6:41:11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'t': '84 km/h', 'y': -21.2063016, 'x': -47.7526733, 'u': 401880902}</t>
+          <t>{'t': '103 km/h', 'y': -20.37496, 'x': -47.8142866, 'u': 401880902}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1163,7 +1159,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>60 km/h</t>
+          <t>66 km/h</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1190,28 +1186,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23.07.2025 00:00:02</t>
+          <t>22.07.2025 08:51:55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Br-040 615, Congonhas, MG 36415-000, Brazil</t>
+          <t>Sp-328, Ribeirão Preto, SP, Brazil</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-20.5097216</v>
+        <v>-21.0958533</v>
       </c>
       <c r="F13" t="n">
-        <v>-43.83995</v>
+        <v>-47.7963533</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:14:44</t>
+          <t>14:06:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>29 days 20:39:23</t>
+          <t>27 days 12:17:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1221,7 +1217,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>86 km/h</t>
+          <t>102 km/h</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1231,7 +1227,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>60 km/h</t>
+          <t>80 km/h</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1324,12 +1320,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:46:48</t>
+          <t>8:09:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15 days 6:49:53</t>
+          <t>13 days 7:06:23</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1387,12 +1383,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:37:47</t>
+          <t>13:11:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23 days 0:42:37</t>
+          <t>22 days 2:32:33</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1407,7 +1403,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>104 km/h</t>
+          <t>105 km/h</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1493,28 +1489,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23.07.2025 12:13:55</t>
+          <t>22.07.2025 10:06:50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Viaduto Profissionais Da Saúde, Subsetor Leste-1, Ribeirão Preto, SP 14020-161, Brazil</t>
+          <t>Avenida Gen. Euclydes De Figueiredo, Subsetor Norte-10, Ribeirão Preto, SP 14070-270, Brazil</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-21.192515</v>
+        <v>-21.1112716</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.7984266</v>
+        <v>-47.790145</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:35:34</t>
+          <t>14:36:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29 days 3:24:55</t>
+          <t>29 days 6:21:20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1524,7 +1520,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>69 km/h</t>
+          <t>54 km/h</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1568,12 +1564,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:05:08</t>
+          <t>14:49:57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15 days 7:19:33</t>
+          <t>14 days 8:57:10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1631,12 +1627,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7:06:31</t>
+          <t>7:03:02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>27 days 6:32:27</t>
+          <t>26 days 5:35:52</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1651,7 +1647,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>104 km/h</t>
+          <t>105 km/h</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1690,12 +1686,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:58:34</t>
+          <t>8:27:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15 days 9:27:39</t>
+          <t>14 days 6:37:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1753,12 +1749,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:33:01</t>
+          <t>8:15:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>28 days 5:06:56</t>
+          <t>27 days 5:50:48</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1773,7 +1769,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>107 km/h</t>
+          <t>108 km/h</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1816,12 +1812,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9:51:48</t>
+          <t>9:00:27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28 days 2:52:55</t>
+          <t>27 days 2:16:17</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1836,7 +1832,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>108 km/h</t>
+          <t>106 km/h</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1875,12 +1871,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:52:47</t>
+          <t>3:43:47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15 days 1:40:59</t>
+          <t>14 days 0:23:52</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1934,12 +1930,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:12:20</t>
+          <t>11:11:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>29 days 1:07:25</t>
+          <t>28 days 1:39:56</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2060,12 +2056,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6:08:44</t>
+          <t>5:43:01</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27 days 20:29:29</t>
+          <t>26 days 22:59:33</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2080,7 +2076,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>118 km/h</t>
+          <t>117 km/h</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2119,12 +2115,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:23:21</t>
+          <t>12:54:19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>27 days 1:32:15</t>
+          <t>26 days 2:25:13</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2139,7 +2135,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>124 km/h</t>
+          <t>123 km/h</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2178,12 +2174,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6:57:49</t>
+          <t>6:47:54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29 days 2:36:30</t>
+          <t>28 days 2:13:18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2241,12 +2237,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>14:47:22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22 days 1:01:25</t>
+          <t>20 days 19:51:41</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2261,7 +2257,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>94 km/h</t>
+          <t>93 km/h</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2363,12 +2359,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6:38:06</t>
+          <t>5:58:27</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29 days 4:55:50</t>
+          <t>22 days 8:01:34</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2383,7 +2379,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>110 km/h</t>
+          <t>111 km/h</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2548,12 +2544,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16:51:35</t>
+          <t>16:29:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>28 days 1:15:02</t>
+          <t>27 days 2:37:47</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2611,12 +2607,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:12:21</t>
+          <t>15:11:47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>16 days 14:05:07</t>
+          <t>15 days 13:48:18</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
